--- a/query/localsearch-cpp/hu.bme.mit.localsearch.cpp.tool.modes/cpp-gen/meres.xlsx
+++ b/query/localsearch-cpp/hu.bme.mit.localsearch.cpp.tool.modes/cpp-gen/meres.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t xml:space="preserve">isDangerous</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">used physical by process (byte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7660 MB</t>
   </si>
   <si>
     <t xml:space="preserve">shouldCollide</t>
@@ -49,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -134,22 +138,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0612244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.4132653061224"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.3571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="22.1275510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6836734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="21.8673469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,222 +226,395 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>4.38E-005</v>
+        <v>6.1869E-005</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>4.5253E-005</v>
+        <v>4.1392E-005</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>3.2421E-005</v>
+        <v>3.9577E-005</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>2.7061E-005</v>
+        <v>3.9336E-005</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>2.6733E-005</v>
+        <v>3.9105E-005</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>2.6924E-005</v>
+        <v>3.9013E-005</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2.647E-005</v>
+        <v>3.8855E-005</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>2.657E-005</v>
+        <v>3.9101E-005</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>2.6404E-005</v>
+        <v>3.8812E-005</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>2.6702E-005</v>
+        <v>3.9686E-005</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>2.685E-005</v>
+        <v>4.4344E-005</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>2.6477E-005</v>
+        <v>3.896E-005</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>2.6484E-005</v>
+        <v>3.8558E-005</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>2.631E-005</v>
+        <v>3.8896E-005</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>2.6604E-005</v>
+        <v>3.8837E-005</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>2.6486E-005</v>
+        <v>3.9083E-005</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>2.6379E-005</v>
+        <v>3.9219E-005</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>2.659E-005</v>
+        <v>3.8743E-005</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>2.6634E-005</v>
+        <v>3.897E-005</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>2.6484E-005</v>
+        <v>3.9101E-005</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="0" t="n">
+        <f aca="false">C2*1000000</f>
+        <v>61.869</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">D2*1000000</f>
+        <v>41.392</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">E2*1000000</f>
+        <v>39.577</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <f aca="false">F2*1000000</f>
+        <v>39.336</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <f aca="false">G2*1000000</f>
+        <v>39.105</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">H2*1000000</f>
+        <v>39.013</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">I2*1000000</f>
+        <v>38.855</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">J2*1000000</f>
+        <v>39.101</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">K2*1000000</f>
+        <v>38.812</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">L2*1000000</f>
+        <v>39.686</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">M2*1000000</f>
+        <v>44.344</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <f aca="false">N2*1000000</f>
+        <v>38.96</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <f aca="false">O2*1000000</f>
+        <v>38.558</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <f aca="false">P2*1000000</f>
+        <v>38.896</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <f aca="false">Q2*1000000</f>
+        <v>38.837</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <f aca="false">R2*1000000</f>
+        <v>39.083</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">S2*1000000</f>
+        <v>39.219</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">T2*1000000</f>
+        <v>38.743</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <f aca="false">U2*1000000</f>
+        <v>38.97</v>
+      </c>
+      <c r="V3" s="0" t="n">
+        <f aca="false">V2*1000000</f>
+        <v>39.101</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>111816</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+      <c r="C6" s="0" t="n">
+        <f aca="false">C5/1024</f>
+        <v>109.1953125</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="N8" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="O8" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="P8" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="Q8" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="S8" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="0" t="s">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>2.7904E-005</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>9.595E-006</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>8.627E-006</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>8.353E-006</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>2.2288E-005</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>8.228E-006</v>
-      </c>
-      <c r="I9" s="0" t="n">
+      <c r="C10" s="0" t="n">
+        <v>1.9951E-005</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>1.1821E-005</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>1.0587E-005</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>9.712E-006</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>8.424E-006</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>8.352E-006</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>8.315E-006</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>8.263E-006</v>
+      </c>
+      <c r="K10" s="0" t="n">
         <v>8.277E-006</v>
       </c>
-      <c r="J9" s="0" t="n">
-        <v>8.305E-006</v>
-      </c>
-      <c r="K9" s="0" t="n">
+      <c r="L10" s="0" t="n">
+        <v>8.273E-006</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>8.132E-006</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>8.175E-006</v>
+      </c>
+      <c r="O10" s="0" t="n">
         <v>8.213E-006</v>
       </c>
-      <c r="L9" s="0" t="n">
-        <v>8.295E-006</v>
-      </c>
-      <c r="M9" s="0" t="n">
-        <v>8.261E-006</v>
-      </c>
-      <c r="N9" s="0" t="n">
-        <v>8.308E-006</v>
-      </c>
-      <c r="O9" s="0" t="n">
-        <v>8.233E-006</v>
-      </c>
-      <c r="P9" s="0" t="n">
-        <v>8.932E-006</v>
-      </c>
-      <c r="Q9" s="0" t="n">
-        <v>1.026E-005</v>
-      </c>
-      <c r="R9" s="0" t="n">
-        <v>1.042E-005</v>
-      </c>
-      <c r="S9" s="0" t="n">
-        <v>1.1872E-005</v>
-      </c>
-      <c r="T9" s="0" t="n">
-        <v>8.317E-006</v>
-      </c>
-      <c r="U9" s="0" t="n">
-        <v>8.171E-006</v>
-      </c>
-      <c r="V9" s="0" t="n">
-        <v>8.268E-006</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>3</v>
+      <c r="P10" s="0" t="n">
+        <v>8.12E-006</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>8.155E-006</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>8.172E-006</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>8.202E-006</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>8.157E-006</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>8.282E-006</v>
+      </c>
+      <c r="V10" s="0" t="n">
+        <v>8.257E-006</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="n">
+        <f aca="false">C10*1000000</f>
+        <v>19.951</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">D10*1000000</f>
+        <v>11.821</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">E10*1000000</f>
+        <v>10.587</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">F10*1000000</f>
+        <v>9.712</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <f aca="false">G10*1000000</f>
+        <v>8.424</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <f aca="false">H10*1000000</f>
+        <v>8.352</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <f aca="false">I10*1000000</f>
+        <v>8.315</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <f aca="false">J10*1000000</f>
+        <v>8.263</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="false">K10*1000000</f>
+        <v>8.277</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">L10*1000000</f>
+        <v>8.273</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="false">M10*1000000</f>
+        <v>8.132</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <f aca="false">N10*1000000</f>
+        <v>8.175</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <f aca="false">O10*1000000</f>
+        <v>8.213</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">P10*1000000</f>
+        <v>8.12</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <f aca="false">Q10*1000000</f>
+        <v>8.155</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <f aca="false">R10*1000000</f>
+        <v>8.172</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <f aca="false">S10*1000000</f>
+        <v>8.202</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <f aca="false">T10*1000000</f>
+        <v>8.157</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <f aca="false">U10*1000000</f>
+        <v>8.282</v>
+      </c>
+      <c r="V11" s="0" t="n">
+        <f aca="false">V10*1000000</f>
+        <v>8.257</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="0" t="n">
         <v>111816</v>
       </c>
     </row>
